--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_16-51.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_16-51.xlsx
@@ -89,9 +89,6 @@
     <t>CERVITAM 20 CAPS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>3:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -1160,7 +1157,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1178,7 +1175,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1186,7 +1183,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1204,7 +1201,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1230,7 +1227,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1238,7 +1235,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1256,7 +1253,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1282,7 +1279,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1308,7 +1305,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1316,7 +1313,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1334,7 +1331,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1342,7 +1339,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1360,7 +1357,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1386,7 +1383,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1412,7 +1409,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1438,7 +1435,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1464,7 +1461,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1472,7 +1469,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -1706,7 +1703,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -2018,7 +2015,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
@@ -2122,7 +2119,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -2226,7 +2223,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
@@ -2244,7 +2241,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2252,7 +2249,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -2270,7 +2267,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2278,7 +2275,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -2296,7 +2293,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2304,7 +2301,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -2322,7 +2319,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2330,7 +2327,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -2353,19 +2350,19 @@
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c t="s" r="A62" s="12">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c t="s" r="F62" s="13">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="14"/>
       <c t="s" r="I62" s="15">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="15"/>
       <c r="K62" s="15"/>
